--- a/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BEFE67-A353-4345-B535-D8D211421E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B46D774-5371-451E-842F-DF38A4659759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BEDCB002-5560-427E-BAD4-6B93F12F6110}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75783D3F-AE63-4B9A-972C-3C6AA6E27BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>17,43%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,57%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>17,12%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>78,41%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,49 @@
     <t>18,15%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>15,71%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>23,46%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>81,85%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
+    <t>84,29%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,1096 +248,1126 @@
     <t>16,38%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>27,47%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
   </si>
   <si>
     <t>65,62%</t>
   </si>
   <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
   </si>
   <si>
     <t>66,81%</t>
   </si>
   <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
     <t>46,07%</t>
   </si>
   <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
   </si>
   <si>
     <t>39,13%</t>
   </si>
   <si>
-    <t>52,43%</t>
+    <t>53,36%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
     <t>53,93%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>47,57%</t>
+    <t>46,64%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
   </si>
   <si>
     <t>37,58%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
+    <t>39,73%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
   </si>
   <si>
     <t>62,42%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>60,27%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,98%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>72,02%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C8E2C-40DA-443F-95F7-18AE823EAA02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6535F37-D8F6-4741-91E0-01E1D5FF6FF7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2195,7 +2219,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -2204,13 +2228,13 @@
         <v>278239</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -2219,13 +2243,13 @@
         <v>452845</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2264,13 @@
         <v>787193</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>652</v>
@@ -2255,13 +2279,13 @@
         <v>690154</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1379</v>
@@ -2270,13 +2294,13 @@
         <v>1477348</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2356,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2368,13 @@
         <v>111142</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>218</v>
@@ -2359,13 +2383,13 @@
         <v>213388</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -2374,13 +2398,13 @@
         <v>324530</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2419,13 @@
         <v>567367</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>478</v>
@@ -2410,13 +2434,13 @@
         <v>470453</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1010</v>
@@ -2425,13 +2449,13 @@
         <v>1037820</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2511,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2523,13 @@
         <v>167204</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>319</v>
@@ -2514,13 +2538,13 @@
         <v>333296</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>503</v>
@@ -2529,13 +2553,13 @@
         <v>500500</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2574,13 @@
         <v>775018</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>678</v>
@@ -2565,13 +2589,13 @@
         <v>705316</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1488</v>
@@ -2580,13 +2604,13 @@
         <v>1480334</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2678,13 @@
         <v>572101</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>978</v>
@@ -2669,13 +2693,13 @@
         <v>1006514</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1562</v>
@@ -2684,13 +2708,13 @@
         <v>1578614</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2729,13 @@
         <v>2704443</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2319</v>
@@ -2720,28 +2744,28 @@
         <v>2372684</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4949</v>
       </c>
       <c r="N20" s="7">
-        <v>5077126</v>
+        <v>5077127</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2807,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2797,7 +2821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B79F14-1B72-4BB7-BB0A-3604883A88D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ADDFF7-4ED8-44B1-9C7A-41112094C9E9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2966,13 @@
         <v>24418</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -2957,13 +2981,13 @@
         <v>44484</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -2972,13 +2996,13 @@
         <v>68902</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3017,13 @@
         <v>91347</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -3008,13 +3032,13 @@
         <v>67421</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -3023,13 +3047,13 @@
         <v>158768</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3121,13 @@
         <v>169652</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>233</v>
@@ -3112,13 +3136,13 @@
         <v>248810</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>388</v>
@@ -3127,13 +3151,13 @@
         <v>418462</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3172,13 @@
         <v>418052</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>318</v>
@@ -3163,13 +3187,13 @@
         <v>336335</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>715</v>
@@ -3178,13 +3202,13 @@
         <v>754387</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3276,13 @@
         <v>249788</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>353</v>
@@ -3267,13 +3291,13 @@
         <v>387592</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>580</v>
@@ -3282,13 +3306,13 @@
         <v>637381</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3327,13 @@
         <v>768159</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>587</v>
@@ -3318,13 +3342,13 @@
         <v>644592</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1296</v>
@@ -3333,13 +3357,13 @@
         <v>1412750</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3419,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3407,13 +3431,13 @@
         <v>168468</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>275</v>
@@ -3422,13 +3446,13 @@
         <v>303691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -3437,13 +3461,13 @@
         <v>472159</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3482,13 @@
         <v>589155</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>430</v>
@@ -3473,13 +3497,13 @@
         <v>473483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>972</v>
@@ -3488,13 +3512,13 @@
         <v>1062638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3574,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3562,13 +3586,13 @@
         <v>253236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>416</v>
@@ -3577,13 +3601,13 @@
         <v>438900</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>645</v>
@@ -3592,13 +3616,13 @@
         <v>692136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3637,13 @@
         <v>694503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>587</v>
@@ -3628,13 +3652,13 @@
         <v>613001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1268</v>
@@ -3643,13 +3667,13 @@
         <v>1307504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3741,13 @@
         <v>865562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1317</v>
@@ -3732,13 +3756,13 @@
         <v>1423478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>2103</v>
@@ -3747,13 +3771,13 @@
         <v>2289040</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3792,13 @@
         <v>2561217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>1981</v>
@@ -3783,13 +3807,13 @@
         <v>2134831</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>4404</v>
@@ -3798,13 +3822,13 @@
         <v>4696048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89FFD66-AE14-4A81-9AB9-CE921F88CAFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16200F22-B844-44ED-98EA-F5CF4F2280AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4029,13 @@
         <v>28658</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -4020,13 +4044,13 @@
         <v>38731</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -4035,13 +4059,13 @@
         <v>67388</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4080,13 @@
         <v>87888</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -4071,13 +4095,13 @@
         <v>74629</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>162</v>
@@ -4086,13 +4110,13 @@
         <v>162518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4184,13 @@
         <v>122225</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -4175,13 +4199,13 @@
         <v>209632</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>322</v>
@@ -4190,13 +4214,13 @@
         <v>331857</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4235,13 @@
         <v>436029</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>352</v>
@@ -4226,13 +4250,13 @@
         <v>349847</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>768</v>
@@ -4241,13 +4265,13 @@
         <v>785876</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4339,13 @@
         <v>237712</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>314</v>
@@ -4330,13 +4354,13 @@
         <v>353793</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>543</v>
@@ -4345,13 +4369,13 @@
         <v>591505</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4390,13 @@
         <v>784719</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>663</v>
@@ -4381,13 +4405,13 @@
         <v>689120</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>1385</v>
@@ -4458,7 +4482,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4613,7 +4637,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4813,10 +4837,10 @@
         <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4855,13 @@
         <v>2615384</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>2237</v>
@@ -4846,13 +4870,13 @@
         <v>2310706</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>4699</v>
@@ -4861,13 +4885,13 @@
         <v>4926090</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0FB2E7-10BD-44B1-8AD5-DD6F71DEE3A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A4694B-78AD-466A-9A5E-84959C433707}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5092,13 @@
         <v>34308</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -5083,13 +5107,13 @@
         <v>63405</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -5098,13 +5122,13 @@
         <v>97713</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5143,13 @@
         <v>67674</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>105</v>
@@ -5134,13 +5158,13 @@
         <v>67328</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -5149,13 +5173,13 @@
         <v>135002</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5247,13 @@
         <v>179688</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>477</v>
@@ -5238,13 +5262,13 @@
         <v>249106</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>718</v>
@@ -5253,13 +5277,13 @@
         <v>428794</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5298,13 @@
         <v>370135</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>521</v>
@@ -5289,13 +5313,13 @@
         <v>370861</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -5408,13 +5432,13 @@
         <v>686552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5453,13 @@
         <v>777206</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
@@ -5444,13 +5468,13 @@
         <v>635569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>1485</v>
@@ -5459,13 +5483,13 @@
         <v>1412775</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5545,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5533,13 +5557,13 @@
         <v>224592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>434</v>
@@ -5548,13 +5572,13 @@
         <v>402780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>675</v>
@@ -5563,13 +5587,13 @@
         <v>627371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5608,13 @@
         <v>504180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>613</v>
@@ -5599,13 +5623,13 @@
         <v>471591</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>1048</v>
@@ -5614,13 +5638,13 @@
         <v>975771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,7 +5700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5688,13 +5712,13 @@
         <v>310961</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>741</v>
@@ -5703,13 +5727,13 @@
         <v>484171</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>1115</v>
@@ -5718,13 +5742,13 @@
         <v>795132</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5763,13 @@
         <v>654442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>821</v>
@@ -5754,13 +5778,13 @@
         <v>666261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>1453</v>
@@ -5769,10 +5793,10 @@
         <v>1320703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>418</v>
@@ -5843,13 +5867,13 @@
         <v>1011591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>2479</v>
@@ -5858,28 +5882,28 @@
         <v>1623970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>3686</v>
       </c>
       <c r="N19" s="7">
-        <v>2635562</v>
+        <v>2635561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5918,13 @@
         <v>2373637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>2888</v>
@@ -5909,13 +5933,13 @@
         <v>2211611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>5057</v>
@@ -5924,13 +5948,13 @@
         <v>4585247</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +5996,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5986,7 +6010,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B46D774-5371-451E-842F-DF38A4659759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA153D9-ADD6-448A-BC61-BE4D7578777A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75783D3F-AE63-4B9A-972C-3C6AA6E27BCF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86699AFC-979F-4374-B016-6CF56AC7D563}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>17,43%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,954 +107,936 @@
     <t>82,57%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>78,41%</t>
   </si>
   <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>15,71%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
   </si>
   <si>
     <t>23,46%</t>
   </si>
   <si>
-    <t>21,48%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -1178,9 +1160,6 @@
     <t>40,05%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
     <t>42,7%</t>
   </si>
   <si>
@@ -1206,9 +1185,6 @@
   </si>
   <si>
     <t>57,3%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
   </si>
   <si>
     <t>67,3%</t>
@@ -1779,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6535F37-D8F6-4741-91E0-01E1D5FF6FF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF242E6-56E4-4F92-B2C1-5E7520100B41}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,7 +2195,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -2228,13 +2204,13 @@
         <v>278239</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -2243,13 +2219,13 @@
         <v>452845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2240,13 @@
         <v>787193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>652</v>
@@ -2279,13 +2255,13 @@
         <v>690154</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1379</v>
@@ -2294,13 +2270,13 @@
         <v>1477348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2368,13 +2344,13 @@
         <v>111142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>218</v>
@@ -2383,13 +2359,13 @@
         <v>213388</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -2398,13 +2374,13 @@
         <v>324530</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2395,13 @@
         <v>567367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>478</v>
@@ -2434,13 +2410,13 @@
         <v>470453</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1010</v>
@@ -2449,13 +2425,13 @@
         <v>1037820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2523,13 +2499,13 @@
         <v>167204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>319</v>
@@ -2538,13 +2514,13 @@
         <v>333296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>503</v>
@@ -2553,13 +2529,13 @@
         <v>500500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2550,13 @@
         <v>775018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>678</v>
@@ -2589,13 +2565,13 @@
         <v>705316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1488</v>
@@ -2604,13 +2580,13 @@
         <v>1480334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2654,13 @@
         <v>572101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>978</v>
@@ -2693,13 +2669,13 @@
         <v>1006514</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1562</v>
@@ -2708,13 +2684,13 @@
         <v>1578614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,16 +2702,16 @@
         <v>2630</v>
       </c>
       <c r="D20" s="7">
-        <v>2704443</v>
+        <v>2704442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2319</v>
@@ -2744,13 +2720,13 @@
         <v>2372684</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>4949</v>
@@ -2759,13 +2735,13 @@
         <v>5077127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2753,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2821,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ADDFF7-4ED8-44B1-9C7A-41112094C9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A368A75-B834-4317-A8AA-FA43548EF84F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,13 +2942,13 @@
         <v>24418</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -2981,13 +2957,13 @@
         <v>44484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -2996,13 +2972,13 @@
         <v>68902</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2993,13 @@
         <v>91347</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -3032,13 +3008,13 @@
         <v>67421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -3047,7 +3023,7 @@
         <v>158768</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>141</v>
@@ -3419,7 +3395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3437,7 +3413,7 @@
         <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>275</v>
@@ -3446,13 +3422,13 @@
         <v>303691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -3461,13 +3437,13 @@
         <v>472159</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3458,13 @@
         <v>589155</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>430</v>
@@ -3497,13 +3473,13 @@
         <v>473483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>972</v>
@@ -3512,13 +3488,13 @@
         <v>1062638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3586,13 +3562,13 @@
         <v>253236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>416</v>
@@ -3601,13 +3577,13 @@
         <v>438900</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>645</v>
@@ -3616,13 +3592,13 @@
         <v>692136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3613,13 @@
         <v>694503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>587</v>
@@ -3652,13 +3628,13 @@
         <v>613001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1268</v>
@@ -3667,13 +3643,13 @@
         <v>1307504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3717,13 @@
         <v>865562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>1317</v>
@@ -3756,13 +3732,13 @@
         <v>1423478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7">
         <v>2103</v>
@@ -3771,13 +3747,13 @@
         <v>2289040</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3768,13 @@
         <v>2561217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>1981</v>
@@ -3807,10 +3783,10 @@
         <v>2134831</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>227</v>
@@ -3884,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16200F22-B844-44ED-98EA-F5CF4F2280AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CA87A4-BE5B-49BD-A6F7-1F69A23A166C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4375,7 +4351,7 @@
         <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4366,13 @@
         <v>784719</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>663</v>
@@ -4405,13 +4381,13 @@
         <v>689120</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1385</v>
@@ -4420,13 +4396,13 @@
         <v>1473839</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4494,13 +4470,13 @@
         <v>160519</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -4509,13 +4485,13 @@
         <v>237976</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -4524,13 +4500,13 @@
         <v>398495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4521,13 @@
         <v>599033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>525</v>
@@ -4560,13 +4536,13 @@
         <v>547035</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>1068</v>
@@ -4575,13 +4551,13 @@
         <v>1146068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4649,13 +4625,13 @@
         <v>229852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>340</v>
@@ -4664,13 +4640,13 @@
         <v>393704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -4679,13 +4655,13 @@
         <v>623557</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4676,13 @@
         <v>707715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>619</v>
@@ -4715,13 +4691,13 @@
         <v>650075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>1316</v>
@@ -4730,13 +4706,13 @@
         <v>1357789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4780,13 @@
         <v>778966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>1101</v>
@@ -4819,13 +4795,13 @@
         <v>1233836</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>1870</v>
@@ -4834,13 +4810,13 @@
         <v>2012802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4831,13 @@
         <v>2615384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>2237</v>
@@ -4870,13 +4846,13 @@
         <v>2310706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>4699</v>
@@ -4885,13 +4861,13 @@
         <v>4926090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A4694B-78AD-466A-9A5E-84959C433707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8EE982-11B3-4DFE-8D5E-B9F0F7F1BD10}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5068,13 @@
         <v>34308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -5107,13 +5083,13 @@
         <v>63405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -5122,13 +5098,13 @@
         <v>97713</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5119,13 @@
         <v>67674</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>105</v>
@@ -5158,13 +5134,13 @@
         <v>67328</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -5173,13 +5149,13 @@
         <v>135002</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5223,13 @@
         <v>179688</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>477</v>
@@ -5262,13 +5238,13 @@
         <v>249106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>718</v>
@@ -5277,13 +5253,13 @@
         <v>428794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5274,13 @@
         <v>370135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>521</v>
@@ -5313,13 +5289,13 @@
         <v>370861</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -5328,13 +5304,13 @@
         <v>740996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5378,13 @@
         <v>262042</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>689</v>
@@ -5417,13 +5393,13 @@
         <v>424510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>996</v>
@@ -5432,13 +5408,13 @@
         <v>686552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5429,13 @@
         <v>777206</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
@@ -5468,13 +5444,13 @@
         <v>635569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>1485</v>
@@ -5483,13 +5459,13 @@
         <v>1412775</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5557,13 +5533,13 @@
         <v>224592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>434</v>
@@ -5572,13 +5548,13 @@
         <v>402780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>675</v>
@@ -5587,13 +5563,13 @@
         <v>627371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5584,13 @@
         <v>504180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>613</v>
@@ -5623,13 +5599,13 @@
         <v>471591</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>1048</v>
@@ -5638,13 +5614,13 @@
         <v>975771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5712,13 +5688,13 @@
         <v>310961</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>741</v>
@@ -5727,13 +5703,13 @@
         <v>484171</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>1115</v>
@@ -5742,13 +5718,13 @@
         <v>795132</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5739,13 @@
         <v>654442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>821</v>
@@ -5778,13 +5754,13 @@
         <v>666261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>1453</v>
@@ -5793,13 +5769,13 @@
         <v>1320703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5843,13 @@
         <v>1011591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>2479</v>
@@ -5882,13 +5858,13 @@
         <v>1623970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>3686</v>
@@ -5897,13 +5873,13 @@
         <v>2635561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5894,13 @@
         <v>2373637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>2888</v>
@@ -5933,13 +5909,13 @@
         <v>2211611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>5057</v>
@@ -5948,13 +5924,13 @@
         <v>4585247</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA153D9-ADD6-448A-BC61-BE4D7578777A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C047749A-8B4B-4EEA-BD78-0ECC0F5C99F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86699AFC-979F-4374-B016-6CF56AC7D563}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8308E6A-003B-4837-BC1B-1F24974B1984}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,1273 +77,1273 @@
     <t>17,43%</t>
   </si>
   <si>
-    <t>10,97%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>74,2%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>35,11%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>64,89%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>70,87%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>62,42%</t>
   </si>
   <si>
-    <t>60,27%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>27,98%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>72,02%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF242E6-56E4-4F92-B2C1-5E7520100B41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14BEAE2-D7D1-4404-A15F-616F2BDD79D9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2702,7 +2702,7 @@
         <v>2630</v>
       </c>
       <c r="D20" s="7">
-        <v>2704442</v>
+        <v>2704443</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2732,7 +2732,7 @@
         <v>4949</v>
       </c>
       <c r="N20" s="7">
-        <v>5077127</v>
+        <v>5077126</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2753,7 +2753,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2783,7 +2783,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2818,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A368A75-B834-4317-A8AA-FA43548EF84F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9524E50A-0B93-47FA-BB78-8B18C12E35B7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2972,13 +2972,13 @@
         <v>68902</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2993,13 @@
         <v>91347</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -3008,13 +3008,13 @@
         <v>67421</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -3023,13 +3023,13 @@
         <v>158768</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3097,13 @@
         <v>169652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>233</v>
@@ -3112,13 +3112,13 @@
         <v>248810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>388</v>
@@ -3127,13 +3127,13 @@
         <v>418462</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3148,13 @@
         <v>418052</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>318</v>
@@ -3163,13 +3163,13 @@
         <v>336335</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>715</v>
@@ -3178,13 +3178,13 @@
         <v>754387</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3252,13 @@
         <v>249788</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>353</v>
@@ -3267,13 +3267,13 @@
         <v>387592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>580</v>
@@ -3282,13 +3282,13 @@
         <v>637381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>768159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>587</v>
@@ -3318,13 +3318,13 @@
         <v>644592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1296</v>
@@ -3333,13 +3333,13 @@
         <v>1412750</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3407,13 @@
         <v>168468</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>275</v>
@@ -3422,13 +3422,13 @@
         <v>303691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>422</v>
@@ -3437,13 +3437,13 @@
         <v>472159</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3458,13 @@
         <v>589155</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>430</v>
@@ -3473,13 +3473,13 @@
         <v>473483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>972</v>
@@ -3488,13 +3488,13 @@
         <v>1062638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3562,13 @@
         <v>253236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>416</v>
@@ -3577,13 +3577,13 @@
         <v>438900</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>645</v>
@@ -3592,13 +3592,13 @@
         <v>692136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3613,13 @@
         <v>694503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>587</v>
@@ -3628,13 +3628,13 @@
         <v>613001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1268</v>
@@ -3643,13 +3643,13 @@
         <v>1307504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3717,13 @@
         <v>865562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>1317</v>
@@ -3732,13 +3732,13 @@
         <v>1423478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>2103</v>
@@ -3747,13 +3747,13 @@
         <v>2289040</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3768,13 @@
         <v>2561217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>1981</v>
@@ -3783,13 +3783,13 @@
         <v>2134831</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>4404</v>
@@ -3798,13 +3798,13 @@
         <v>4696048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CA87A4-BE5B-49BD-A6F7-1F69A23A166C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6506EC61-A8B1-4094-9863-F01E948C00AF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4005,13 @@
         <v>28658</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -4020,13 +4020,13 @@
         <v>38731</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -4035,13 +4035,13 @@
         <v>67388</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4056,13 @@
         <v>87888</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -4071,13 +4071,13 @@
         <v>74629</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>162</v>
@@ -4086,13 +4086,13 @@
         <v>162518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>122225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -4175,13 +4175,13 @@
         <v>209632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>322</v>
@@ -4190,13 +4190,13 @@
         <v>331857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4211,13 @@
         <v>436029</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>352</v>
@@ -4226,13 +4226,13 @@
         <v>349847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>768</v>
@@ -4241,13 +4241,13 @@
         <v>785876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4315,13 @@
         <v>237712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>314</v>
@@ -4330,13 +4330,13 @@
         <v>353793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>543</v>
@@ -4345,13 +4345,13 @@
         <v>591505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>784719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>663</v>
@@ -4381,13 +4381,13 @@
         <v>689120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>1385</v>
@@ -4396,13 +4396,13 @@
         <v>1473839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4470,13 @@
         <v>160519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -4485,13 +4485,13 @@
         <v>237976</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -4500,13 +4500,13 @@
         <v>398495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4521,13 @@
         <v>599033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>525</v>
@@ -4536,13 +4536,13 @@
         <v>547035</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>1068</v>
@@ -4551,13 +4551,13 @@
         <v>1146068</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4625,13 @@
         <v>229852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>340</v>
@@ -4640,13 +4640,13 @@
         <v>393704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -4655,13 +4655,13 @@
         <v>623557</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4676,13 @@
         <v>707715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>619</v>
@@ -4691,13 +4691,13 @@
         <v>650075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>1316</v>
@@ -4706,13 +4706,13 @@
         <v>1357789</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4780,13 @@
         <v>778966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>1101</v>
@@ -4795,13 +4795,13 @@
         <v>1233836</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>1870</v>
@@ -4810,13 +4810,13 @@
         <v>2012802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4831,13 @@
         <v>2615384</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>2237</v>
@@ -4846,13 +4846,13 @@
         <v>2310706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>4699</v>
@@ -4861,13 +4861,13 @@
         <v>4926090</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8EE982-11B3-4DFE-8D5E-B9F0F7F1BD10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3901A37-9E5B-49B4-BCBF-B65DE4F2FBA6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5068,13 @@
         <v>34308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -5083,13 +5083,13 @@
         <v>63405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -5098,13 +5098,13 @@
         <v>97713</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5119,13 @@
         <v>67674</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>105</v>
@@ -5134,13 +5134,13 @@
         <v>67328</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -5149,13 +5149,13 @@
         <v>135002</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5223,13 @@
         <v>179688</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>477</v>
@@ -5238,13 +5238,13 @@
         <v>249106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>718</v>
@@ -5253,13 +5253,13 @@
         <v>428794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5274,13 @@
         <v>370135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>521</v>
@@ -5289,13 +5289,13 @@
         <v>370861</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -5304,13 +5304,13 @@
         <v>740996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5378,13 @@
         <v>262042</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>689</v>
@@ -5393,13 +5393,13 @@
         <v>424510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>996</v>
@@ -5408,13 +5408,13 @@
         <v>686552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5429,13 @@
         <v>777206</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
@@ -5444,13 +5444,13 @@
         <v>635569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>1485</v>
@@ -5459,13 +5459,13 @@
         <v>1412775</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5533,13 @@
         <v>224592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>434</v>
@@ -5548,13 +5548,13 @@
         <v>402780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>675</v>
@@ -5563,13 +5563,13 @@
         <v>627371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5584,13 @@
         <v>504180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>613</v>
@@ -5620,7 +5620,7 @@
         <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,10 +5721,10 @@
         <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5739,13 @@
         <v>654442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>821</v>
@@ -5754,13 +5754,13 @@
         <v>666261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>1453</v>
@@ -5769,13 +5769,13 @@
         <v>1320703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5843,13 @@
         <v>1011591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>2479</v>
@@ -5858,28 +5858,28 @@
         <v>1623970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>3686</v>
       </c>
       <c r="N19" s="7">
-        <v>2635561</v>
+        <v>2635562</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,10 +5894,10 @@
         <v>2373637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>428</v>
@@ -5972,7 +5972,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C047749A-8B4B-4EEA-BD78-0ECC0F5C99F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBFAE04-C0AE-42C3-8DF9-748B152609B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8308E6A-003B-4837-BC1B-1F24974B1984}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D3E08E8B-3EB8-41E3-9156-08249D081FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1282 +68,1111 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1584,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14BEAE2-D7D1-4404-A15F-616F2BDD79D9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39337DF-59F9-4C61-BD24-12CADE495A42}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1702,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7">
-        <v>20103</v>
+        <v>119148</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="I4" s="7">
-        <v>31424</v>
+        <v>181591</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1732,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="N4" s="7">
-        <v>51527</v>
+        <v>300739</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>86</v>
+        <v>561</v>
       </c>
       <c r="D5" s="7">
-        <v>95255</v>
+        <v>574864</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>92</v>
+        <v>511</v>
       </c>
       <c r="I5" s="7">
-        <v>81331</v>
+        <v>506760</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1783,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>178</v>
+        <v>1072</v>
       </c>
       <c r="N5" s="7">
-        <v>176586</v>
+        <v>1081624</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1819,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1834,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="D7" s="7">
-        <v>99045</v>
+        <v>174607</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2043,10 +1872,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="I7" s="7">
-        <v>150167</v>
+        <v>278239</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2058,10 +1887,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>252</v>
+        <v>425</v>
       </c>
       <c r="N7" s="7">
-        <v>249212</v>
+        <v>452845</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2079,10 +1908,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>475</v>
+        <v>727</v>
       </c>
       <c r="D8" s="7">
-        <v>479609</v>
+        <v>787193</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2094,10 +1923,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>419</v>
+        <v>652</v>
       </c>
       <c r="I8" s="7">
-        <v>425429</v>
+        <v>690154</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2109,10 +1938,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>894</v>
+        <v>1379</v>
       </c>
       <c r="N8" s="7">
-        <v>905038</v>
+        <v>1477348</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +1959,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1974,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1989,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7">
-        <v>174607</v>
+        <v>111142</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2198,10 +2027,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="I10" s="7">
-        <v>278239</v>
+        <v>213388</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2213,10 +2042,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>425</v>
+        <v>327</v>
       </c>
       <c r="N10" s="7">
-        <v>452845</v>
+        <v>324530</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2234,10 +2063,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>727</v>
+        <v>532</v>
       </c>
       <c r="D11" s="7">
-        <v>787193</v>
+        <v>567367</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2249,10 +2078,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>652</v>
+        <v>478</v>
       </c>
       <c r="I11" s="7">
-        <v>690154</v>
+        <v>470453</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2264,10 +2093,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1379</v>
+        <v>1010</v>
       </c>
       <c r="N11" s="7">
-        <v>1477348</v>
+        <v>1037820</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2285,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2129,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2144,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2167,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="D13" s="7">
-        <v>111142</v>
+        <v>167204</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2353,10 +2182,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="I13" s="7">
-        <v>213388</v>
+        <v>333296</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2368,10 +2197,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>327</v>
+        <v>503</v>
       </c>
       <c r="N13" s="7">
-        <v>324530</v>
+        <v>500500</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2389,10 +2218,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>532</v>
+        <v>810</v>
       </c>
       <c r="D14" s="7">
-        <v>567367</v>
+        <v>775018</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2404,10 +2233,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>478</v>
+        <v>678</v>
       </c>
       <c r="I14" s="7">
-        <v>470453</v>
+        <v>705316</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2419,10 +2248,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1010</v>
+        <v>1488</v>
       </c>
       <c r="N14" s="7">
-        <v>1037820</v>
+        <v>1480334</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2440,10 +2269,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2284,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2299,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,55 +2316,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>184</v>
+        <v>584</v>
       </c>
       <c r="D16" s="7">
-        <v>167204</v>
+        <v>572101</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>978</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1006514</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>319</v>
-      </c>
-      <c r="I16" s="7">
-        <v>333296</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1562</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1578614</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>503</v>
-      </c>
-      <c r="N16" s="7">
-        <v>500500</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2373,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>810</v>
+        <v>2630</v>
       </c>
       <c r="D17" s="7">
-        <v>775018</v>
+        <v>2704442</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2319</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2372683</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>678</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705316</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4949</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5077127</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1488</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1480334</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2424,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2439,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2454,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2470,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>584</v>
-      </c>
-      <c r="D19" s="7">
-        <v>572101</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>978</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1006514</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1562</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1578614</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2630</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2704443</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2319</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2372684</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4949</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5077126</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2491,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9524E50A-0B93-47FA-BB78-8B18C12E35B7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D551B0-C088-40CF-86D7-B7F2AE7C235B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2508,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2609,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D4" s="7">
-        <v>24418</v>
+        <v>194070</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="I4" s="7">
-        <v>44484</v>
+        <v>293294</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>68</v>
+        <v>456</v>
       </c>
       <c r="N4" s="7">
-        <v>68902</v>
+        <v>487364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2660,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>491</v>
       </c>
       <c r="D5" s="7">
-        <v>91347</v>
+        <v>509399</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>59</v>
+        <v>377</v>
       </c>
       <c r="I5" s="7">
-        <v>67421</v>
+        <v>403756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>153</v>
+        <v>868</v>
       </c>
       <c r="N5" s="7">
-        <v>158768</v>
+        <v>913155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2711,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2726,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2741,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2764,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>169652</v>
+        <v>249788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="I7" s="7">
-        <v>248810</v>
+        <v>387592</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>388</v>
+        <v>580</v>
       </c>
       <c r="N7" s="7">
-        <v>418462</v>
+        <v>637381</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2815,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>397</v>
+        <v>709</v>
       </c>
       <c r="D8" s="7">
-        <v>418052</v>
+        <v>768159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>318</v>
+        <v>587</v>
       </c>
       <c r="I8" s="7">
-        <v>336335</v>
+        <v>644592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>715</v>
+        <v>1296</v>
       </c>
       <c r="N8" s="7">
-        <v>754387</v>
+        <v>1412750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2866,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2881,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2896,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3246,49 +2919,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="D10" s="7">
-        <v>249788</v>
+        <v>168468</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="I10" s="7">
-        <v>387592</v>
+        <v>303691</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>580</v>
+        <v>422</v>
       </c>
       <c r="N10" s="7">
-        <v>637381</v>
+        <v>472159</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2970,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>709</v>
+        <v>542</v>
       </c>
       <c r="D11" s="7">
-        <v>768159</v>
+        <v>589155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>587</v>
+        <v>430</v>
       </c>
       <c r="I11" s="7">
-        <v>644592</v>
+        <v>473483</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1296</v>
+        <v>972</v>
       </c>
       <c r="N11" s="7">
-        <v>1412750</v>
+        <v>1062638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +3021,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3036,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3051,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,49 +3074,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7">
-        <v>168468</v>
+        <v>253236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>275</v>
+        <v>416</v>
       </c>
       <c r="I13" s="7">
-        <v>303691</v>
+        <v>438900</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>422</v>
+        <v>645</v>
       </c>
       <c r="N13" s="7">
-        <v>472159</v>
+        <v>692136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3125,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="D14" s="7">
-        <v>589155</v>
+        <v>694503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>430</v>
+        <v>587</v>
       </c>
       <c r="I14" s="7">
-        <v>473483</v>
+        <v>613001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>972</v>
+        <v>1268</v>
       </c>
       <c r="N14" s="7">
-        <v>1062638</v>
+        <v>1307504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3191,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3206,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3223,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>229</v>
+        <v>786</v>
       </c>
       <c r="D16" s="7">
-        <v>253236</v>
+        <v>865562</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>416</v>
+        <v>1317</v>
       </c>
       <c r="I16" s="7">
-        <v>438900</v>
+        <v>1423478</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>645</v>
+        <v>2103</v>
       </c>
       <c r="N16" s="7">
-        <v>692136</v>
+        <v>2289040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3280,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>681</v>
+        <v>2423</v>
       </c>
       <c r="D17" s="7">
-        <v>694503</v>
+        <v>2561217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>587</v>
+        <v>1981</v>
       </c>
       <c r="I17" s="7">
-        <v>613001</v>
+        <v>2134831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>1268</v>
+        <v>4404</v>
       </c>
       <c r="N17" s="7">
-        <v>1307504</v>
+        <v>4696048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3331,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3346,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3361,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3377,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>786</v>
-      </c>
-      <c r="D19" s="7">
-        <v>865562</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1317</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1423478</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2103</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2289040</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2423</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2561217</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1981</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2134831</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4404</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4696048</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6506EC61-A8B1-4094-9863-F01E948C00AF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0777B796-3926-41FD-B6E7-1C212C37465A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3516,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="D4" s="7">
-        <v>28658</v>
+        <v>150883</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="7">
         <v>236</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="7">
-        <v>37</v>
-      </c>
       <c r="I4" s="7">
-        <v>38731</v>
+        <v>248362</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>388</v>
       </c>
       <c r="N4" s="7">
-        <v>67388</v>
+        <v>399245</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3567,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>84</v>
+        <v>500</v>
       </c>
       <c r="D5" s="7">
-        <v>87888</v>
+        <v>523917</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="I5" s="7">
-        <v>74629</v>
+        <v>424477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>162</v>
+        <v>930</v>
       </c>
       <c r="N5" s="7">
-        <v>162518</v>
+        <v>948394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3618,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3633,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3648,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3671,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="D7" s="7">
-        <v>122225</v>
+        <v>237712</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="I7" s="7">
-        <v>209632</v>
+        <v>353793</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
-        <v>322</v>
+        <v>543</v>
       </c>
       <c r="N7" s="7">
-        <v>331857</v>
+        <v>591505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3722,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>416</v>
+        <v>722</v>
       </c>
       <c r="D8" s="7">
-        <v>436029</v>
+        <v>784719</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
-        <v>352</v>
+        <v>663</v>
       </c>
       <c r="I8" s="7">
-        <v>349847</v>
+        <v>689120</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
-        <v>768</v>
+        <v>1385</v>
       </c>
       <c r="N8" s="7">
-        <v>785876</v>
+        <v>1473839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3773,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3788,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3803,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,49 +3826,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="D10" s="7">
-        <v>237712</v>
+        <v>160519</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="I10" s="7">
-        <v>353793</v>
+        <v>237976</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>543</v>
+        <v>364</v>
       </c>
       <c r="N10" s="7">
-        <v>591505</v>
+        <v>398495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3877,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>722</v>
+        <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>784719</v>
+        <v>599033</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>663</v>
+        <v>525</v>
       </c>
       <c r="I11" s="7">
-        <v>689120</v>
+        <v>547035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>1385</v>
+        <v>1068</v>
       </c>
       <c r="N11" s="7">
-        <v>1473839</v>
+        <v>1146068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3928,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3943,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3958,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4464,49 +3981,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="D13" s="7">
-        <v>160519</v>
+        <v>229852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>211</v>
+        <v>340</v>
       </c>
       <c r="I13" s="7">
-        <v>237976</v>
+        <v>393704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>364</v>
+        <v>575</v>
       </c>
       <c r="N13" s="7">
-        <v>398495</v>
+        <v>623557</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4032,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>543</v>
+        <v>697</v>
       </c>
       <c r="D14" s="7">
-        <v>599033</v>
+        <v>707715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="I14" s="7">
-        <v>547035</v>
+        <v>650075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>1068</v>
+        <v>1316</v>
       </c>
       <c r="N14" s="7">
-        <v>1146068</v>
+        <v>1357789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4083,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4098,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4113,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4130,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>235</v>
+        <v>769</v>
       </c>
       <c r="D16" s="7">
-        <v>229852</v>
+        <v>778966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>340</v>
+        <v>1101</v>
       </c>
       <c r="I16" s="7">
-        <v>393704</v>
+        <v>1233836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>575</v>
+        <v>1870</v>
       </c>
       <c r="N16" s="7">
-        <v>623557</v>
+        <v>2012802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4187,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>697</v>
+        <v>2462</v>
       </c>
       <c r="D17" s="7">
-        <v>707715</v>
+        <v>2615384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>619</v>
+        <v>2237</v>
       </c>
       <c r="I17" s="7">
-        <v>650075</v>
+        <v>2310706</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
-        <v>1316</v>
+        <v>4699</v>
       </c>
       <c r="N17" s="7">
-        <v>1357789</v>
+        <v>4926090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4238,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4253,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4268,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4284,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>769</v>
-      </c>
-      <c r="D19" s="7">
-        <v>778966</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1101</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1233836</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1870</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2012802</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2462</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2615384</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2237</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2310706</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4699</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4926090</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4305,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3901A37-9E5B-49B4-BCBF-B65DE4F2FBA6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA79379-6C1C-467A-B754-6D3486485C72}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4322,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4423,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="D4" s="7">
-        <v>34308</v>
+        <v>204999</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
-        <v>138</v>
+        <v>615</v>
       </c>
       <c r="I4" s="7">
-        <v>63405</v>
+        <v>290915</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
-        <v>182</v>
+        <v>900</v>
       </c>
       <c r="N4" s="7">
-        <v>97713</v>
+        <v>495914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4474,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>74</v>
+        <v>445</v>
       </c>
       <c r="D5" s="7">
-        <v>67674</v>
+        <v>430442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>626</v>
       </c>
       <c r="I5" s="7">
-        <v>67328</v>
+        <v>434415</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
-        <v>179</v>
+        <v>1071</v>
       </c>
       <c r="N5" s="7">
-        <v>135002</v>
+        <v>864858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4525,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4540,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4555,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4578,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="D7" s="7">
-        <v>179688</v>
+        <v>247304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
-        <v>477</v>
+        <v>689</v>
       </c>
       <c r="I7" s="7">
-        <v>249106</v>
+        <v>386266</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
-        <v>718</v>
+        <v>996</v>
       </c>
       <c r="N7" s="7">
-        <v>428794</v>
+        <v>633571</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4629,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>371</v>
+        <v>657</v>
       </c>
       <c r="D8" s="7">
-        <v>370135</v>
+        <v>945560</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
-        <v>521</v>
+        <v>828</v>
       </c>
       <c r="I8" s="7">
-        <v>370861</v>
+        <v>572385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
-        <v>892</v>
+        <v>1485</v>
       </c>
       <c r="N8" s="7">
-        <v>740996</v>
+        <v>1517945</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4680,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4695,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4710,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,49 +4733,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="D10" s="7">
-        <v>262042</v>
+        <v>213022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
-        <v>689</v>
+        <v>434</v>
       </c>
       <c r="I10" s="7">
-        <v>424510</v>
+        <v>472150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
-        <v>996</v>
+        <v>675</v>
       </c>
       <c r="N10" s="7">
-        <v>686552</v>
+        <v>685172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4784,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>657</v>
+        <v>435</v>
       </c>
       <c r="D11" s="7">
-        <v>777206</v>
+        <v>491658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
-        <v>828</v>
+        <v>613</v>
       </c>
       <c r="I11" s="7">
-        <v>635569</v>
+        <v>461216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
-        <v>1485</v>
+        <v>1048</v>
       </c>
       <c r="N11" s="7">
-        <v>1412775</v>
+        <v>952874</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4850,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4865,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5527,49 +4888,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>241</v>
+        <v>374</v>
       </c>
       <c r="D13" s="7">
-        <v>224592</v>
+        <v>296006</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
-        <v>434</v>
+        <v>741</v>
       </c>
       <c r="I13" s="7">
-        <v>402780</v>
+        <v>437336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
-        <v>675</v>
+        <v>1115</v>
       </c>
       <c r="N13" s="7">
-        <v>627371</v>
+        <v>733342</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4939,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>435</v>
+        <v>632</v>
       </c>
       <c r="D14" s="7">
-        <v>504180</v>
+        <v>630825</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
-        <v>613</v>
+        <v>821</v>
       </c>
       <c r="I14" s="7">
-        <v>471591</v>
+        <v>657596</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
-        <v>1048</v>
+        <v>1453</v>
       </c>
       <c r="N14" s="7">
-        <v>975771</v>
+        <v>1288421</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4990,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +5005,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +5020,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +5037,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>374</v>
+        <v>1207</v>
       </c>
       <c r="D16" s="7">
-        <v>310961</v>
+        <v>961331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
-        <v>741</v>
+        <v>2479</v>
       </c>
       <c r="I16" s="7">
-        <v>484171</v>
+        <v>1586668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
-        <v>1115</v>
+        <v>3686</v>
       </c>
       <c r="N16" s="7">
-        <v>795132</v>
+        <v>2547999</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5094,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>632</v>
+        <v>2169</v>
       </c>
       <c r="D17" s="7">
-        <v>654442</v>
+        <v>2498486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
-        <v>821</v>
+        <v>2888</v>
       </c>
       <c r="I17" s="7">
-        <v>666261</v>
+        <v>2125612</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
-        <v>1453</v>
+        <v>5057</v>
       </c>
       <c r="N17" s="7">
-        <v>1320703</v>
+        <v>4624098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5145,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5160,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5175,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5191,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1207</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1011591</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2479</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1623970</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3686</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2635562</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2169</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2373637</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2888</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2211611</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5057</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4585247</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
